--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharm\Stickers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikhail\PycharmProjects\Stickers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA6B9E2-659F-4877-9B92-CCAB9864A5C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F676EFF-66B7-489D-B660-8C33974DD226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="3990" windowWidth="28740" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сборочные задания" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="57">
   <si>
     <t>Номер задания</t>
   </si>
@@ -112,112 +112,85 @@
     <t>15 ч 42 мин</t>
   </si>
   <si>
-    <t>3DSTIKERY-LUCKY.STAR_KONATA-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-LUCKY.STAR_KONATA-6</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-LUCKY.STAR_VSE-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-LUCKY.STAR_VSE-6</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-LUCKY.STAR_VSE-2</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-VLAD.CHEREVATYI-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-VLAD.CHEREVATYI-6</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-VLAD.CHEREVATYI-2</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-GIDLE_KPOP-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-DK-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-GORODA.ROSSII-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-PUPIRKA_AT-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-KOROL_AT-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-BUBLGYM_AT-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-MARSELIN_AT-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-JAKE_AT-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-ADVENTYRE_TIME-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-CHARLY_HAZBIN-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-VEGGY_HAZBIN-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-DAST_HAZBIN-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-HASK_HAZBIN-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-NIFFTY_HAZBIN-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-BAMBOOK-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-NSO.GAME-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-KVADROBIKA-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-HEZATI-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-GIDLE.GROOP-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-ALASTOR_HAZBIN-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-ESTETIK_BLUE-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-ESTETIK_BROWN-12</t>
-  </si>
-  <si>
-    <t>3DSTIKERY-ESTETIK_LAVANDA-12</t>
-  </si>
-  <si>
-    <t>14days.you-13new-6-44</t>
-  </si>
-  <si>
-    <t>17seventeen-13new-1-44</t>
-  </si>
-  <si>
-    <t>17seventeen-13new-6-44</t>
-  </si>
-  <si>
-    <t>17seventeentwo-13new-6-44</t>
-  </si>
-  <si>
-    <t>19dayonce-13new-1-44</t>
+    <t>AKLEIKIKVADRAT-HINOMORI.SHIZUKU.BLUE-DO-16</t>
+  </si>
+  <si>
+    <t>NAKLEIKIKVADRAT-2RBINA.2RISTA-UV-16</t>
+  </si>
+  <si>
+    <t>NAKLEIKIKVADRAT-2RBINA.2RISTA-UV-32</t>
+  </si>
+  <si>
+    <t>3DSTIKERY-2RBINA2RISTA-12</t>
+  </si>
+  <si>
+    <t>3DSTIKERY-2RBINA2RISTA-2</t>
+  </si>
+  <si>
+    <t>3DSTIKERY-2RBINA2RISTA-6</t>
+  </si>
+  <si>
+    <t>3DSTIKERY-2RBINA2RISTA_N-12</t>
+  </si>
+  <si>
+    <t>3DSTIKERY-2RBINA2RISTA_N-2</t>
+  </si>
+  <si>
+    <t>3DSTIKERY-2RBINA2RISTA_N-6</t>
+  </si>
+  <si>
+    <t>3DSTIKERY-5FREDDYS-UV-12</t>
+  </si>
+  <si>
+    <t>3DSTIKERY-5FREDDYS-UV-2</t>
+  </si>
+  <si>
+    <t>NAKLEYKAKARTA-1K_SEBE_LOVE-DO-2</t>
+  </si>
+  <si>
+    <t>NAKLEYKAKARTA-1MEM_LAPENKO-UV-1</t>
+  </si>
+  <si>
+    <t>NAKLEYKAKARTA-1MEM_MELLSTROY-UV-1</t>
+  </si>
+  <si>
+    <t>NAKLEYKAKARTA-1MIYAGI-1</t>
+  </si>
+  <si>
+    <t>NAKLEYKAKARTA-1MOTIVAC-UV-1</t>
+  </si>
+  <si>
+    <t>NAKLEYKAKARTA-1PAREN_VINSENT-UV-1</t>
+  </si>
+  <si>
+    <t>NAKLEYKAKARTA-1PAREN_VINSENT-UV-2</t>
+  </si>
+  <si>
+    <t>NAKLEYKAKARTA-1SSSR_RUB-1</t>
+  </si>
+  <si>
+    <t>NAKLEYKAKARTA-1STRAY_KIDS-UV-1</t>
+  </si>
+  <si>
+    <t>NAKLEYKAKARTA-1TWICE-I_GOT_YOU-UV-1</t>
+  </si>
+  <si>
+    <t>NAKLEYKAKARTA-1TWICE-ONE_SPARK-UV-1</t>
+  </si>
+  <si>
+    <t>NAKLEYKAKARTA-1ZNAMYA_POBEDI-1</t>
+  </si>
+  <si>
+    <t>POPSOCKER_DP-YUV-SOHUN</t>
+  </si>
+  <si>
+    <t>POPSOCKER_DP-YUV-SONU</t>
+  </si>
+  <si>
+    <t>POPSOCKET_DP-13KART-FELIX</t>
+  </si>
+  <si>
+    <t>POPSOCKET_DP-13KART-GABRIEL</t>
   </si>
 </sst>
 </file>
@@ -568,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1123,7 +1096,7 @@
         <v>28</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>23</v>
@@ -1176,7 +1149,7 @@
         <v>28</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>23</v>
@@ -1232,7 +1205,7 @@
         <v>28</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>23</v>
@@ -1288,7 +1261,7 @@
         <v>28</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M13" t="s">
         <v>23</v>
@@ -1344,7 +1317,7 @@
         <v>28</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>23</v>
@@ -1397,7 +1370,7 @@
         <v>28</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M15" t="s">
         <v>23</v>
@@ -1453,7 +1426,7 @@
         <v>28</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M16" t="s">
         <v>23</v>
@@ -1509,7 +1482,7 @@
         <v>28</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="M17" t="s">
         <v>23</v>
@@ -1565,7 +1538,7 @@
         <v>28</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="M18" t="s">
         <v>23</v>
@@ -1618,7 +1591,7 @@
         <v>28</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="M19" t="s">
         <v>23</v>
@@ -1674,7 +1647,7 @@
         <v>28</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M20" t="s">
         <v>23</v>
@@ -1730,7 +1703,7 @@
         <v>28</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="M21" t="s">
         <v>23</v>
@@ -1786,7 +1759,7 @@
         <v>28</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M22" t="s">
         <v>23</v>
@@ -1839,7 +1812,7 @@
         <v>28</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="M23" t="s">
         <v>23</v>
@@ -1895,7 +1868,7 @@
         <v>28</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="M24" t="s">
         <v>23</v>
@@ -1951,7 +1924,7 @@
         <v>28</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="M25" t="s">
         <v>23</v>
@@ -2007,7 +1980,7 @@
         <v>28</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M26" t="s">
         <v>23</v>
@@ -2060,7 +2033,7 @@
         <v>28</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M27" t="s">
         <v>23</v>
@@ -2116,7 +2089,7 @@
         <v>28</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M28" t="s">
         <v>23</v>
@@ -2136,1170 +2109,6 @@
       <c r="R28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29">
-        <v>766592075</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29">
-        <v>238</v>
-      </c>
-      <c r="J29" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M29" t="s">
-        <v>23</v>
-      </c>
-      <c r="N29" t="s">
-        <v>24</v>
-      </c>
-      <c r="O29" t="s">
-        <v>19</v>
-      </c>
-      <c r="P29" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>19</v>
-      </c>
-      <c r="R29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30">
-        <v>766592075</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30">
-        <v>238</v>
-      </c>
-      <c r="J30" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" t="s">
-        <v>28</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M30" t="s">
-        <v>23</v>
-      </c>
-      <c r="N30" t="s">
-        <v>24</v>
-      </c>
-      <c r="O30" t="s">
-        <v>19</v>
-      </c>
-      <c r="P30" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>19</v>
-      </c>
-      <c r="R30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31">
-        <v>238</v>
-      </c>
-      <c r="J31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M31" t="s">
-        <v>23</v>
-      </c>
-      <c r="N31" t="s">
-        <v>24</v>
-      </c>
-      <c r="O31" t="s">
-        <v>19</v>
-      </c>
-      <c r="P31" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>19</v>
-      </c>
-      <c r="R31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32">
-        <v>766592075</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32">
-        <v>238</v>
-      </c>
-      <c r="J32" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" t="s">
-        <v>28</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M32" t="s">
-        <v>23</v>
-      </c>
-      <c r="N32" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32" t="s">
-        <v>19</v>
-      </c>
-      <c r="P32" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>19</v>
-      </c>
-      <c r="R32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33">
-        <v>766592075</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33">
-        <v>238</v>
-      </c>
-      <c r="J33" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" t="s">
-        <v>28</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M33" t="s">
-        <v>23</v>
-      </c>
-      <c r="N33" t="s">
-        <v>24</v>
-      </c>
-      <c r="O33" t="s">
-        <v>19</v>
-      </c>
-      <c r="P33" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>19</v>
-      </c>
-      <c r="R33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34">
-        <v>766592075</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" t="s">
-        <v>27</v>
-      </c>
-      <c r="G34" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34">
-        <v>238</v>
-      </c>
-      <c r="J34" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34" t="s">
-        <v>28</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M34" t="s">
-        <v>23</v>
-      </c>
-      <c r="N34" t="s">
-        <v>24</v>
-      </c>
-      <c r="O34" t="s">
-        <v>19</v>
-      </c>
-      <c r="P34" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>19</v>
-      </c>
-      <c r="R34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35">
-        <v>238</v>
-      </c>
-      <c r="J35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K35" t="s">
-        <v>28</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M35" t="s">
-        <v>23</v>
-      </c>
-      <c r="N35" t="s">
-        <v>24</v>
-      </c>
-      <c r="O35" t="s">
-        <v>19</v>
-      </c>
-      <c r="P35" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>19</v>
-      </c>
-      <c r="R35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="A36">
-        <v>766592075</v>
-      </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" t="s">
-        <v>27</v>
-      </c>
-      <c r="G36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36">
-        <v>238</v>
-      </c>
-      <c r="J36" t="s">
-        <v>22</v>
-      </c>
-      <c r="K36" t="s">
-        <v>28</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M36" t="s">
-        <v>23</v>
-      </c>
-      <c r="N36" t="s">
-        <v>24</v>
-      </c>
-      <c r="O36" t="s">
-        <v>19</v>
-      </c>
-      <c r="P36" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>19</v>
-      </c>
-      <c r="R36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="A37">
-        <v>766592075</v>
-      </c>
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37">
-        <v>238</v>
-      </c>
-      <c r="J37" t="s">
-        <v>22</v>
-      </c>
-      <c r="K37" t="s">
-        <v>28</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M37" t="s">
-        <v>23</v>
-      </c>
-      <c r="N37" t="s">
-        <v>24</v>
-      </c>
-      <c r="O37" t="s">
-        <v>19</v>
-      </c>
-      <c r="P37" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>19</v>
-      </c>
-      <c r="R37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="A38">
-        <v>766592075</v>
-      </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38">
-        <v>238</v>
-      </c>
-      <c r="J38" t="s">
-        <v>22</v>
-      </c>
-      <c r="K38" t="s">
-        <v>28</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M38" t="s">
-        <v>23</v>
-      </c>
-      <c r="N38" t="s">
-        <v>24</v>
-      </c>
-      <c r="O38" t="s">
-        <v>19</v>
-      </c>
-      <c r="P38" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>19</v>
-      </c>
-      <c r="R38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="B39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" t="s">
-        <v>27</v>
-      </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39">
-        <v>238</v>
-      </c>
-      <c r="J39" t="s">
-        <v>22</v>
-      </c>
-      <c r="K39" t="s">
-        <v>28</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M39" t="s">
-        <v>23</v>
-      </c>
-      <c r="N39" t="s">
-        <v>24</v>
-      </c>
-      <c r="O39" t="s">
-        <v>19</v>
-      </c>
-      <c r="P39" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>19</v>
-      </c>
-      <c r="R39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="A40">
-        <v>766592075</v>
-      </c>
-      <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40">
-        <v>238</v>
-      </c>
-      <c r="J40" t="s">
-        <v>22</v>
-      </c>
-      <c r="K40" t="s">
-        <v>28</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M40" t="s">
-        <v>23</v>
-      </c>
-      <c r="N40" t="s">
-        <v>24</v>
-      </c>
-      <c r="O40" t="s">
-        <v>19</v>
-      </c>
-      <c r="P40" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>19</v>
-      </c>
-      <c r="R40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="A41">
-        <v>766592075</v>
-      </c>
-      <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41">
-        <v>238</v>
-      </c>
-      <c r="J41" t="s">
-        <v>22</v>
-      </c>
-      <c r="K41" t="s">
-        <v>28</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M41" t="s">
-        <v>23</v>
-      </c>
-      <c r="N41" t="s">
-        <v>24</v>
-      </c>
-      <c r="O41" t="s">
-        <v>19</v>
-      </c>
-      <c r="P41" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>19</v>
-      </c>
-      <c r="R41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="A42">
-        <v>766592075</v>
-      </c>
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42">
-        <v>238</v>
-      </c>
-      <c r="J42" t="s">
-        <v>22</v>
-      </c>
-      <c r="K42" t="s">
-        <v>28</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M42" t="s">
-        <v>23</v>
-      </c>
-      <c r="N42" t="s">
-        <v>24</v>
-      </c>
-      <c r="O42" t="s">
-        <v>19</v>
-      </c>
-      <c r="P42" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>19</v>
-      </c>
-      <c r="R42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" t="s">
-        <v>27</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" t="s">
-        <v>21</v>
-      </c>
-      <c r="I43">
-        <v>238</v>
-      </c>
-      <c r="J43" t="s">
-        <v>22</v>
-      </c>
-      <c r="K43" t="s">
-        <v>28</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M43" t="s">
-        <v>23</v>
-      </c>
-      <c r="N43" t="s">
-        <v>24</v>
-      </c>
-      <c r="O43" t="s">
-        <v>19</v>
-      </c>
-      <c r="P43" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>19</v>
-      </c>
-      <c r="R43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="A44">
-        <v>766592075</v>
-      </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44">
-        <v>238</v>
-      </c>
-      <c r="J44" t="s">
-        <v>22</v>
-      </c>
-      <c r="K44" t="s">
-        <v>28</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M44" t="s">
-        <v>23</v>
-      </c>
-      <c r="N44" t="s">
-        <v>24</v>
-      </c>
-      <c r="O44" t="s">
-        <v>19</v>
-      </c>
-      <c r="P44" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>19</v>
-      </c>
-      <c r="R44" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="A45">
-        <v>766592075</v>
-      </c>
-      <c r="B45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45">
-        <v>238</v>
-      </c>
-      <c r="J45" t="s">
-        <v>22</v>
-      </c>
-      <c r="K45" t="s">
-        <v>28</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M45" t="s">
-        <v>23</v>
-      </c>
-      <c r="N45" t="s">
-        <v>24</v>
-      </c>
-      <c r="O45" t="s">
-        <v>19</v>
-      </c>
-      <c r="P45" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>19</v>
-      </c>
-      <c r="R45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="A46">
-        <v>766592075</v>
-      </c>
-      <c r="B46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46">
-        <v>238</v>
-      </c>
-      <c r="J46" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46" t="s">
-        <v>28</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M46" t="s">
-        <v>23</v>
-      </c>
-      <c r="N46" t="s">
-        <v>24</v>
-      </c>
-      <c r="O46" t="s">
-        <v>19</v>
-      </c>
-      <c r="P46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>19</v>
-      </c>
-      <c r="R46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="B47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47">
-        <v>238</v>
-      </c>
-      <c r="J47" t="s">
-        <v>22</v>
-      </c>
-      <c r="K47" t="s">
-        <v>28</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M47" t="s">
-        <v>23</v>
-      </c>
-      <c r="N47" t="s">
-        <v>24</v>
-      </c>
-      <c r="O47" t="s">
-        <v>19</v>
-      </c>
-      <c r="P47" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>19</v>
-      </c>
-      <c r="R47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
-      <c r="A48">
-        <v>766592075</v>
-      </c>
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" t="s">
-        <v>21</v>
-      </c>
-      <c r="I48">
-        <v>238</v>
-      </c>
-      <c r="J48" t="s">
-        <v>22</v>
-      </c>
-      <c r="K48" t="s">
-        <v>28</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M48" t="s">
-        <v>23</v>
-      </c>
-      <c r="N48" t="s">
-        <v>24</v>
-      </c>
-      <c r="O48" t="s">
-        <v>19</v>
-      </c>
-      <c r="P48" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>19</v>
-      </c>
-      <c r="R48" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18">
-      <c r="A49">
-        <v>766592075</v>
-      </c>
-      <c r="B49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D49" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49">
-        <v>238</v>
-      </c>
-      <c r="J49" t="s">
-        <v>22</v>
-      </c>
-      <c r="K49" t="s">
-        <v>28</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M49" t="s">
-        <v>23</v>
-      </c>
-      <c r="N49" t="s">
-        <v>24</v>
-      </c>
-      <c r="O49" t="s">
-        <v>19</v>
-      </c>
-      <c r="P49" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>19</v>
-      </c>
-      <c r="R49" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18">
-      <c r="L50" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
